--- a/biology/Zoologie/Eryopoidea/Eryopoidea.xlsx
+++ b/biology/Zoologie/Eryopoidea/Eryopoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eryopoidés
 Les Eryopoidea (Eryopoidés en français) sont une super-famille fossile d'amphibiens temnospondyles.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eryopoidea sont un taxon d'amphibiens temnospondyli du Carbonifère supérieur et du Permien, connus d'Amérique du Nord et d'Europe.
-Carroll comprend pas moins de dix familles[1], mais Yates et Warren remplacent cela par une approche cladistique et incluent trois familles, les Eryopidae, les Parioxyidae et les Zatrachydidae[2]. Ils définissent les Éryopoïdes comme toutes les euskelies dont les choanes sont relativement arrondies et la lame iliaque verticale.
-Une définition similaire mais sans l'Euskelia est fournie par Laurin et Steyer[3].
+Carroll comprend pas moins de dix familles, mais Yates et Warren remplacent cela par une approche cladistique et incluent trois familles, les Eryopidae, les Parioxyidae et les Zatrachydidae. Ils définissent les Éryopoïdes comme toutes les euskelies dont les choanes sont relativement arrondies et la lame iliaque verticale.
+Une définition similaire mais sans l'Euskelia est fournie par Laurin et Steyer.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
